--- a/excel/finished/焦化45/炼焦煤气单耗分析.xlsx
+++ b/excel/finished/焦化45/炼焦煤气单耗分析.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="68">
   <si>
     <t>产线</t>
   </si>
@@ -243,14 +243,17 @@
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>本月</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="178" formatCode="0.0"/>
-    <numFmt numFmtId="179" formatCode="0.000"/>
+    <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="177" formatCode="0.000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -801,7 +804,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center"/>
@@ -858,16 +861,16 @@
     <xf numFmtId="1" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -887,71 +890,21 @@
     <xf numFmtId="1" fontId="0" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -996,13 +949,66 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
@@ -2141,8 +2147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:W50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:O6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2156,47 +2162,47 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" s="78" t="str">
+      <c r="A3" s="46" t="str">
         <f>B5&amp;"炼焦单耗分析"</f>
         <v>4#-5#炼焦单耗分析</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="78"/>
-      <c r="O3" s="78"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" s="78"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78"/>
-      <c r="K4" s="78"/>
-      <c r="L4" s="78"/>
-      <c r="M4" s="78"/>
-      <c r="N4" s="78"/>
-      <c r="O4" s="78"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="45" t="s">
         <v>66</v>
       </c>
       <c r="C5" s="6"/>
@@ -2214,28 +2220,28 @@
       <c r="O5" s="6"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="46"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="63"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="64"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" s="69"/>
+      <c r="A7" s="53"/>
       <c r="B7" s="7" t="s">
         <v>3</v>
       </c>
@@ -2272,15 +2278,15 @@
       <c r="M7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="N7" s="8" t="s">
-        <v>15</v>
+      <c r="N7" s="44" t="s">
+        <v>67</v>
       </c>
       <c r="O7" s="32" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A8" s="69"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="9">
         <f>_danhao_day_all!E3</f>
         <v>0</v>
@@ -2339,21 +2345,21 @@
       </c>
     </row>
     <row r="9" spans="1:22" ht="47.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="69"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="49"/>
+      <c r="A9" s="53"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="76"/>
+      <c r="M9" s="76"/>
+      <c r="N9" s="76"/>
+      <c r="O9" s="77"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
@@ -2373,28 +2379,28 @@
       <c r="O10" s="6"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A11" s="69" t="s">
+      <c r="A11" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="52"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="79"/>
+      <c r="L11" s="79"/>
+      <c r="M11" s="79"/>
+      <c r="N11" s="79"/>
+      <c r="O11" s="80"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A12" s="69"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="11" t="s">
         <v>3</v>
       </c>
@@ -2431,8 +2437,8 @@
       <c r="M12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="N12" s="8" t="s">
-        <v>15</v>
+      <c r="N12" s="44" t="s">
+        <v>67</v>
       </c>
       <c r="O12" s="32" t="s">
         <v>16</v>
@@ -2440,7 +2446,7 @@
       <c r="P12" s="34"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A13" s="69"/>
+      <c r="A13" s="53"/>
       <c r="B13" s="12">
         <f>_danhao_day_all!F3</f>
         <v>0</v>
@@ -2500,37 +2506,37 @@
       <c r="P13" s="34"/>
     </row>
     <row r="14" spans="1:22" ht="47.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="69"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="54"/>
-      <c r="N14" s="54"/>
-      <c r="O14" s="55"/>
+      <c r="A14" s="53"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="71"/>
+      <c r="I14" s="71"/>
+      <c r="J14" s="71"/>
+      <c r="K14" s="71"/>
+      <c r="L14" s="71"/>
+      <c r="M14" s="71"/>
+      <c r="N14" s="71"/>
+      <c r="O14" s="72"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A15" s="70"/>
-      <c r="B15" s="56" t="s">
+      <c r="A15" s="54"/>
+      <c r="B15" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
       <c r="E15" s="15">
         <v>51</v>
       </c>
       <c r="F15" s="15"/>
-      <c r="G15" s="57" t="s">
+      <c r="G15" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="57"/>
+      <c r="H15" s="69"/>
       <c r="I15" s="14">
         <v>0.76</v>
       </c>
@@ -2548,7 +2554,7 @@
       <c r="V15" s="43"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A16" s="70"/>
+      <c r="A16" s="54"/>
       <c r="B16" s="16" t="s">
         <v>16</v>
       </c>
@@ -2563,10 +2569,10 @@
         <v>0</v>
       </c>
       <c r="F16" s="19"/>
-      <c r="G16" s="58" t="s">
+      <c r="G16" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="58"/>
+      <c r="H16" s="47"/>
       <c r="I16" s="18">
         <f>V16*N15*100</f>
         <v>0</v>
@@ -2603,28 +2609,28 @@
       <c r="O17" s="6"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A18" s="70" t="s">
+      <c r="A18" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="45"/>
-      <c r="N18" s="45"/>
-      <c r="O18" s="46"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="63"/>
+      <c r="M18" s="63"/>
+      <c r="N18" s="63"/>
+      <c r="O18" s="64"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A19" s="70"/>
+      <c r="A19" s="54"/>
       <c r="B19" s="7" t="s">
         <v>3</v>
       </c>
@@ -2661,15 +2667,15 @@
       <c r="M19" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="N19" s="8" t="s">
-        <v>15</v>
+      <c r="N19" s="44" t="s">
+        <v>67</v>
       </c>
       <c r="O19" s="32" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A20" s="70"/>
+      <c r="A20" s="54"/>
       <c r="B20" s="20">
         <f>_danhao_day_all!G3</f>
         <v>0</v>
@@ -2728,29 +2734,29 @@
       </c>
     </row>
     <row r="21" spans="1:22" ht="42.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="70"/>
-      <c r="B21" s="59"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="54"/>
-      <c r="M21" s="54"/>
-      <c r="N21" s="54"/>
-      <c r="O21" s="60"/>
+      <c r="A21" s="54"/>
+      <c r="B21" s="73"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="71"/>
+      <c r="I21" s="71"/>
+      <c r="J21" s="71"/>
+      <c r="K21" s="71"/>
+      <c r="L21" s="71"/>
+      <c r="M21" s="71"/>
+      <c r="N21" s="71"/>
+      <c r="O21" s="74"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A22" s="70"/>
-      <c r="B22" s="56" t="s">
+      <c r="A22" s="54"/>
+      <c r="B22" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57">
+      <c r="C22" s="69"/>
+      <c r="D22" s="69">
         <v>17100</v>
       </c>
       <c r="E22" s="15">
@@ -2758,10 +2764,10 @@
         <v>0</v>
       </c>
       <c r="F22" s="15"/>
-      <c r="G22" s="57" t="s">
+      <c r="G22" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="H22" s="57"/>
+      <c r="H22" s="69"/>
       <c r="I22" s="14">
         <v>3.4</v>
       </c>
@@ -2778,7 +2784,7 @@
       <c r="O22" s="36"/>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A23" s="70"/>
+      <c r="A23" s="54"/>
       <c r="B23" s="22" t="s">
         <v>16</v>
       </c>
@@ -2793,10 +2799,10 @@
         <v>0</v>
       </c>
       <c r="F23" s="19"/>
-      <c r="G23" s="58" t="s">
+      <c r="G23" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="H23" s="58"/>
+      <c r="H23" s="47"/>
       <c r="I23" s="18" t="e">
         <f>V23*N22/100</f>
         <v>#DIV/0!</v>
@@ -2833,28 +2839,28 @@
       <c r="O24" s="6"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A25" s="69" t="s">
+      <c r="A25" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="44" t="s">
+      <c r="B25" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="45"/>
-      <c r="O25" s="46"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="63"/>
+      <c r="L25" s="63"/>
+      <c r="M25" s="63"/>
+      <c r="N25" s="63"/>
+      <c r="O25" s="64"/>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A26" s="69"/>
+      <c r="A26" s="53"/>
       <c r="B26" s="7" t="s">
         <v>3</v>
       </c>
@@ -2891,15 +2897,15 @@
       <c r="M26" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="N26" s="8" t="s">
-        <v>15</v>
+      <c r="N26" s="44" t="s">
+        <v>67</v>
       </c>
       <c r="O26" s="32" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A27" s="69"/>
+      <c r="A27" s="53"/>
       <c r="B27" s="24">
         <f>_danhao_day_all!H3</f>
         <v>0</v>
@@ -2958,29 +2964,29 @@
       </c>
     </row>
     <row r="28" spans="1:22" ht="44.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="69"/>
-      <c r="B28" s="53"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
-      <c r="K28" s="54"/>
-      <c r="L28" s="54"/>
-      <c r="M28" s="54"/>
-      <c r="N28" s="54"/>
-      <c r="O28" s="55"/>
+      <c r="A28" s="53"/>
+      <c r="B28" s="70"/>
+      <c r="C28" s="71"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="71"/>
+      <c r="H28" s="71"/>
+      <c r="I28" s="71"/>
+      <c r="J28" s="71"/>
+      <c r="K28" s="71"/>
+      <c r="L28" s="71"/>
+      <c r="M28" s="71"/>
+      <c r="N28" s="71"/>
+      <c r="O28" s="72"/>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A29" s="69"/>
-      <c r="B29" s="56" t="s">
+      <c r="A29" s="53"/>
+      <c r="B29" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57">
+      <c r="C29" s="69"/>
+      <c r="D29" s="69">
         <v>3250</v>
       </c>
       <c r="E29" s="14">
@@ -2988,10 +2994,10 @@
         <v>0</v>
       </c>
       <c r="F29" s="15"/>
-      <c r="G29" s="57" t="s">
+      <c r="G29" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="H29" s="57"/>
+      <c r="H29" s="69"/>
       <c r="I29" s="14">
         <v>3.8</v>
       </c>
@@ -3008,7 +3014,7 @@
       <c r="O29" s="36"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A30" s="69"/>
+      <c r="A30" s="53"/>
       <c r="B30" s="22" t="s">
         <v>16</v>
       </c>
@@ -3023,10 +3029,10 @@
         <v>0</v>
       </c>
       <c r="F30" s="19"/>
-      <c r="G30" s="58" t="s">
+      <c r="G30" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="H30" s="58"/>
+      <c r="H30" s="47"/>
       <c r="I30" s="18" t="e">
         <f>V30*N29/100</f>
         <v>#DIV/0!</v>
@@ -3063,28 +3069,28 @@
       <c r="O31" s="6"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A32" s="69" t="s">
+      <c r="A32" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="44" t="s">
+      <c r="B32" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="45"/>
-      <c r="J32" s="45"/>
-      <c r="K32" s="45"/>
-      <c r="L32" s="45"/>
-      <c r="M32" s="45"/>
-      <c r="N32" s="45"/>
-      <c r="O32" s="46"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="63"/>
+      <c r="K32" s="63"/>
+      <c r="L32" s="63"/>
+      <c r="M32" s="63"/>
+      <c r="N32" s="63"/>
+      <c r="O32" s="64"/>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A33" s="69"/>
+      <c r="A33" s="53"/>
       <c r="B33" s="7" t="s">
         <v>3</v>
       </c>
@@ -3121,15 +3127,15 @@
       <c r="M33" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="N33" s="8" t="s">
-        <v>15</v>
+      <c r="N33" s="44" t="s">
+        <v>67</v>
       </c>
       <c r="O33" s="32" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A34" s="69"/>
+      <c r="A34" s="53"/>
       <c r="B34" s="24">
         <f>_danhao_day_all!I3*1000</f>
         <v>0</v>
@@ -3188,29 +3194,29 @@
       </c>
     </row>
     <row r="35" spans="1:22" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="69"/>
-      <c r="B35" s="53"/>
-      <c r="C35" s="54"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="54"/>
-      <c r="G35" s="54"/>
-      <c r="H35" s="54"/>
-      <c r="I35" s="54"/>
-      <c r="J35" s="54"/>
-      <c r="K35" s="54"/>
-      <c r="L35" s="54"/>
-      <c r="M35" s="54"/>
-      <c r="N35" s="54"/>
-      <c r="O35" s="55"/>
+      <c r="A35" s="53"/>
+      <c r="B35" s="70"/>
+      <c r="C35" s="71"/>
+      <c r="D35" s="71"/>
+      <c r="E35" s="71"/>
+      <c r="F35" s="71"/>
+      <c r="G35" s="71"/>
+      <c r="H35" s="71"/>
+      <c r="I35" s="71"/>
+      <c r="J35" s="71"/>
+      <c r="K35" s="71"/>
+      <c r="L35" s="71"/>
+      <c r="M35" s="71"/>
+      <c r="N35" s="71"/>
+      <c r="O35" s="72"/>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A36" s="69"/>
-      <c r="B36" s="56" t="s">
+      <c r="A36" s="53"/>
+      <c r="B36" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="57"/>
-      <c r="D36" s="57">
+      <c r="C36" s="69"/>
+      <c r="D36" s="69">
         <f>IF(B5="4.3m",15.3,21.5)</f>
         <v>21.5</v>
       </c>
@@ -3219,10 +3225,10 @@
         <v>0</v>
       </c>
       <c r="F36" s="15"/>
-      <c r="G36" s="57" t="s">
+      <c r="G36" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="H36" s="57"/>
+      <c r="H36" s="69"/>
       <c r="I36" s="14">
         <f>IF(B5="6#-7#",I29,I22)</f>
         <v>3.4</v>
@@ -3240,7 +3246,7 @@
       <c r="O36" s="36"/>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A37" s="69"/>
+      <c r="A37" s="53"/>
       <c r="B37" s="22" t="s">
         <v>16</v>
       </c>
@@ -3257,10 +3263,10 @@
         <f>IF(V37&lt;0,"↓"&amp;TEXT(V37,"0"),IF(V37=0,0,"↑"&amp;TEXT(V37,"0")))</f>
         <v>0</v>
       </c>
-      <c r="G37" s="58" t="s">
+      <c r="G37" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="H37" s="58"/>
+      <c r="H37" s="47"/>
       <c r="I37" s="18">
         <f>-V37*N36</f>
         <v>0</v>
@@ -3297,28 +3303,28 @@
       <c r="O38" s="6"/>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A39" s="69" t="s">
+      <c r="A39" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="44" t="s">
+      <c r="B39" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="45"/>
-      <c r="D39" s="45"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="45"/>
-      <c r="G39" s="45"/>
-      <c r="H39" s="45"/>
-      <c r="I39" s="45"/>
-      <c r="J39" s="45"/>
-      <c r="K39" s="45"/>
-      <c r="L39" s="45"/>
-      <c r="M39" s="45"/>
-      <c r="N39" s="45"/>
-      <c r="O39" s="46"/>
+      <c r="C39" s="63"/>
+      <c r="D39" s="63"/>
+      <c r="E39" s="63"/>
+      <c r="F39" s="63"/>
+      <c r="G39" s="63"/>
+      <c r="H39" s="63"/>
+      <c r="I39" s="63"/>
+      <c r="J39" s="63"/>
+      <c r="K39" s="63"/>
+      <c r="L39" s="63"/>
+      <c r="M39" s="63"/>
+      <c r="N39" s="63"/>
+      <c r="O39" s="64"/>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A40" s="69"/>
+      <c r="A40" s="53"/>
       <c r="B40" s="7" t="s">
         <v>3</v>
       </c>
@@ -3355,15 +3361,15 @@
       <c r="M40" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="N40" s="8" t="s">
-        <v>15</v>
+      <c r="N40" s="44" t="s">
+        <v>67</v>
       </c>
       <c r="O40" s="32" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A41" s="69"/>
+      <c r="A41" s="53"/>
       <c r="B41" s="26">
         <f>_danhao_day_all!J3</f>
         <v>0</v>
@@ -3422,39 +3428,39 @@
       </c>
     </row>
     <row r="42" spans="1:22" ht="44.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="70"/>
-      <c r="B42" s="61"/>
-      <c r="C42" s="62"/>
-      <c r="D42" s="62"/>
-      <c r="E42" s="62"/>
-      <c r="F42" s="62"/>
-      <c r="G42" s="62"/>
-      <c r="H42" s="62"/>
-      <c r="I42" s="62"/>
-      <c r="J42" s="62"/>
-      <c r="K42" s="62"/>
-      <c r="L42" s="62"/>
-      <c r="M42" s="62"/>
-      <c r="N42" s="62"/>
-      <c r="O42" s="63"/>
+      <c r="A42" s="54"/>
+      <c r="B42" s="65"/>
+      <c r="C42" s="66"/>
+      <c r="D42" s="66"/>
+      <c r="E42" s="66"/>
+      <c r="F42" s="66"/>
+      <c r="G42" s="66"/>
+      <c r="H42" s="66"/>
+      <c r="I42" s="66"/>
+      <c r="J42" s="66"/>
+      <c r="K42" s="66"/>
+      <c r="L42" s="66"/>
+      <c r="M42" s="66"/>
+      <c r="N42" s="66"/>
+      <c r="O42" s="67"/>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A43" s="69"/>
-      <c r="B43" s="56" t="s">
+      <c r="A43" s="53"/>
+      <c r="B43" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="C43" s="57"/>
-      <c r="D43" s="57">
+      <c r="C43" s="69"/>
+      <c r="D43" s="69">
         <v>132</v>
       </c>
       <c r="E43" s="14">
         <v>132</v>
       </c>
       <c r="F43" s="15"/>
-      <c r="G43" s="57" t="s">
+      <c r="G43" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="H43" s="57"/>
+      <c r="H43" s="69"/>
       <c r="I43" s="14">
         <f>IF(B12="6#-7#",I36,I29)</f>
         <v>3.8</v>
@@ -3472,7 +3478,7 @@
       <c r="O43" s="36"/>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A44" s="69"/>
+      <c r="A44" s="53"/>
       <c r="B44" s="22" t="s">
         <v>16</v>
       </c>
@@ -3489,10 +3495,10 @@
         <f>IF(V44&lt;0,"↓"&amp;TEXT(V44,"0"),IF(V44=0,0,"↑"&amp;TEXT(V44,"0")))</f>
         <v>0</v>
       </c>
-      <c r="G44" s="58" t="s">
+      <c r="G44" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="H44" s="58"/>
+      <c r="H44" s="47"/>
       <c r="I44" s="42">
         <f>V44*N43</f>
         <v>0</v>
@@ -3529,28 +3535,28 @@
       <c r="O45" s="6"/>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A46" s="71" t="s">
+      <c r="A46" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="B46" s="64" t="s">
+      <c r="B46" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="C46" s="64"/>
-      <c r="D46" s="64"/>
-      <c r="E46" s="64"/>
-      <c r="F46" s="64"/>
-      <c r="G46" s="64"/>
-      <c r="H46" s="64"/>
-      <c r="I46" s="64"/>
-      <c r="J46" s="64"/>
-      <c r="K46" s="64"/>
-      <c r="L46" s="64"/>
-      <c r="M46" s="64"/>
-      <c r="N46" s="64"/>
-      <c r="O46" s="65"/>
+      <c r="C46" s="48"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="48"/>
+      <c r="H46" s="48"/>
+      <c r="I46" s="48"/>
+      <c r="J46" s="48"/>
+      <c r="K46" s="48"/>
+      <c r="L46" s="48"/>
+      <c r="M46" s="48"/>
+      <c r="N46" s="48"/>
+      <c r="O46" s="49"/>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A47" s="72"/>
+      <c r="A47" s="56"/>
       <c r="B47" s="28" t="s">
         <v>43</v>
       </c>
@@ -3572,16 +3578,16 @@
       <c r="H47" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="I47" s="74"/>
-      <c r="J47" s="74"/>
-      <c r="K47" s="74"/>
-      <c r="L47" s="74"/>
-      <c r="M47" s="74"/>
-      <c r="N47" s="74"/>
-      <c r="O47" s="75"/>
+      <c r="I47" s="58"/>
+      <c r="J47" s="58"/>
+      <c r="K47" s="58"/>
+      <c r="L47" s="58"/>
+      <c r="M47" s="58"/>
+      <c r="N47" s="58"/>
+      <c r="O47" s="59"/>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A48" s="72"/>
+      <c r="A48" s="56"/>
       <c r="B48" s="30">
         <f>I16</f>
         <v>0</v>
@@ -3610,16 +3616,16 @@
         <f>O8-N8-G48</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I48" s="74"/>
-      <c r="J48" s="74"/>
-      <c r="K48" s="74"/>
-      <c r="L48" s="74"/>
-      <c r="M48" s="74"/>
-      <c r="N48" s="74"/>
-      <c r="O48" s="75"/>
+      <c r="I48" s="58"/>
+      <c r="J48" s="58"/>
+      <c r="K48" s="58"/>
+      <c r="L48" s="58"/>
+      <c r="M48" s="58"/>
+      <c r="N48" s="58"/>
+      <c r="O48" s="59"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A49" s="72"/>
+      <c r="A49" s="56"/>
       <c r="B49" s="30">
         <f>ABS(B48)</f>
         <v>0</v>
@@ -3648,33 +3654,55 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I49" s="74"/>
-      <c r="J49" s="74"/>
-      <c r="K49" s="74"/>
-      <c r="L49" s="74"/>
-      <c r="M49" s="74"/>
-      <c r="N49" s="74"/>
-      <c r="O49" s="75"/>
+      <c r="I49" s="58"/>
+      <c r="J49" s="58"/>
+      <c r="K49" s="58"/>
+      <c r="L49" s="58"/>
+      <c r="M49" s="58"/>
+      <c r="N49" s="58"/>
+      <c r="O49" s="59"/>
     </row>
     <row r="50" spans="1:15" ht="101.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="73"/>
-      <c r="B50" s="66"/>
-      <c r="C50" s="67"/>
-      <c r="D50" s="67"/>
-      <c r="E50" s="67"/>
-      <c r="F50" s="67"/>
-      <c r="G50" s="67"/>
-      <c r="H50" s="68"/>
-      <c r="I50" s="76"/>
-      <c r="J50" s="76"/>
-      <c r="K50" s="76"/>
-      <c r="L50" s="76"/>
-      <c r="M50" s="76"/>
-      <c r="N50" s="76"/>
-      <c r="O50" s="77"/>
+      <c r="A50" s="57"/>
+      <c r="B50" s="50"/>
+      <c r="C50" s="51"/>
+      <c r="D50" s="51"/>
+      <c r="E50" s="51"/>
+      <c r="F50" s="51"/>
+      <c r="G50" s="51"/>
+      <c r="H50" s="52"/>
+      <c r="I50" s="60"/>
+      <c r="J50" s="60"/>
+      <c r="K50" s="60"/>
+      <c r="L50" s="60"/>
+      <c r="M50" s="60"/>
+      <c r="N50" s="60"/>
+      <c r="O50" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="B6:O6"/>
+    <mergeCell ref="B9:O9"/>
+    <mergeCell ref="B11:O11"/>
+    <mergeCell ref="B14:O14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="B18:O18"/>
+    <mergeCell ref="B21:O21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="B25:O25"/>
+    <mergeCell ref="B28:O28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="B32:O32"/>
+    <mergeCell ref="B35:O35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="G36:H36"/>
     <mergeCell ref="A3:O4"/>
     <mergeCell ref="G44:H44"/>
     <mergeCell ref="B46:O46"/>
@@ -3691,28 +3719,6 @@
     <mergeCell ref="B39:O39"/>
     <mergeCell ref="B42:O42"/>
     <mergeCell ref="B43:D43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="B32:O32"/>
-    <mergeCell ref="B35:O35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="B25:O25"/>
-    <mergeCell ref="B28:O28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="B18:O18"/>
-    <mergeCell ref="B21:O21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="B6:O6"/>
-    <mergeCell ref="B9:O9"/>
-    <mergeCell ref="B11:O11"/>
-    <mergeCell ref="B14:O14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="G15:H15"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="1">
@@ -3769,7 +3775,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C3" s="79" t="s">
+      <c r="C3" s="81" t="s">
         <v>58</v>
       </c>
       <c r="D3" t="s">
@@ -3779,7 +3785,7 @@
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C4" s="79"/>
+      <c r="C4" s="81"/>
       <c r="D4" t="s">
         <v>4</v>
       </c>
@@ -3787,7 +3793,7 @@
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C5" s="79"/>
+      <c r="C5" s="81"/>
       <c r="D5" t="s">
         <v>5</v>
       </c>
@@ -3795,7 +3801,7 @@
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C6" s="79"/>
+      <c r="C6" s="81"/>
       <c r="D6" t="s">
         <v>6</v>
       </c>
@@ -3803,7 +3809,7 @@
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C7" s="79"/>
+      <c r="C7" s="81"/>
       <c r="D7" t="s">
         <v>7</v>
       </c>
@@ -3811,7 +3817,7 @@
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C8" s="79"/>
+      <c r="C8" s="81"/>
       <c r="D8" t="s">
         <v>8</v>
       </c>
@@ -3819,7 +3825,7 @@
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C9" s="79"/>
+      <c r="C9" s="81"/>
       <c r="D9" t="s">
         <v>9</v>
       </c>
@@ -3827,7 +3833,7 @@
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C10" s="79"/>
+      <c r="C10" s="81"/>
       <c r="D10" t="s">
         <v>10</v>
       </c>
@@ -3835,7 +3841,7 @@
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C11" s="79"/>
+      <c r="C11" s="81"/>
       <c r="D11" t="s">
         <v>11</v>
       </c>
@@ -3843,7 +3849,7 @@
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C12" s="79"/>
+      <c r="C12" s="81"/>
       <c r="D12" t="s">
         <v>12</v>
       </c>
@@ -3851,7 +3857,7 @@
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C13" s="79"/>
+      <c r="C13" s="81"/>
       <c r="D13" t="s">
         <v>13</v>
       </c>
@@ -3859,7 +3865,7 @@
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C14" s="79"/>
+      <c r="C14" s="81"/>
       <c r="D14" s="4" t="s">
         <v>14</v>
       </c>
@@ -3867,7 +3873,7 @@
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C15" s="79"/>
+      <c r="C15" s="81"/>
       <c r="D15" t="s">
         <v>15</v>
       </c>
@@ -3875,7 +3881,7 @@
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C16" s="79"/>
+      <c r="C16" s="81"/>
       <c r="D16" t="s">
         <v>16</v>
       </c>
@@ -3885,7 +3891,7 @@
     <row r="17" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D17" s="4">
         <f ca="1">NOW()</f>
-        <v>43683.367132754633</v>
+        <v>43683.63243391204</v>
       </c>
     </row>
     <row r="19" spans="4:10" ht="78" customHeight="1" x14ac:dyDescent="0.2">
@@ -3914,6 +3920,7 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/excel/finished/焦化45/炼焦煤气单耗分析.xlsx
+++ b/excel/finished/焦化45/炼焦煤气单耗分析.xlsx
@@ -1,34 +1,68 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20730" windowHeight="9720"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="炼焦煤气单耗分析" sheetId="1" r:id="rId1"/>
-    <sheet name="_danhao_day_all" sheetId="2" r:id="rId2"/>
-    <sheet name="_metadata" sheetId="3" r:id="rId3"/>
-    <sheet name="_dictionary" sheetId="4" r:id="rId4"/>
+    <sheet name="炼焦煤气单耗分析" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="_danhao_day_all" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="_metadata" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="_dictionary" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+  <si>
+    <t>4#-5#炼焦单耗分析</t>
+  </si>
   <si>
     <t>产线</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+        <sz val="11"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+        <sz val="11"/>
+      </rPr>
+      <t>#-</t>
+    </r>
+    <r>
+      <rPr>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+        <sz val="11"/>
+      </rPr>
+      <t>5#</t>
+    </r>
+  </si>
+  <si>
     <t>简况</t>
   </si>
   <si>
     <t>炼焦单耗变化</t>
   </si>
   <si>
-    <t>近1周</t>
+    <t>#VALUE!</t>
+  </si>
+  <si>
+    <t>本月</t>
   </si>
   <si>
     <t>今日</t>
@@ -40,13 +74,13 @@
     <t>入炉煤日水分变化</t>
   </si>
   <si>
-    <t>湿煤1%水分影响热量 Kj/kg</t>
-  </si>
-  <si>
-    <t>吨湿煤成焦率 kg/kg</t>
-  </si>
-  <si>
-    <t>1%水分影响吨焦耗热量 Gj/t</t>
+    <t xml:space="preserve">湿煤1%水分影响热量 Kj/kg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">吨湿煤成焦率 kg/kg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1%水分影响吨焦耗热量 Gj/t</t>
   </si>
   <si>
     <t>相较于</t>
@@ -57,21 +91,19 @@
     </r>
     <r>
       <rPr>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">    </t>
     </r>
     <r>
       <rPr>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t>Gj/t</t>
     </r>
@@ -86,16 +118,16 @@
     <t>焦炉煤气热值变化</t>
   </si>
   <si>
-    <t>标准热值(系统) Kj/m3</t>
-  </si>
-  <si>
-    <t>基准单耗 Gj/t</t>
+    <t xml:space="preserve">标准热值(系统) Kj/m3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">基准单耗 Gj/t</t>
   </si>
   <si>
     <t>100kj/m3影响吨焦耗热量:</t>
   </si>
   <si>
-    <t>实际影响 Gj/t</t>
+    <t xml:space="preserve">实际影响 Gj/t</t>
   </si>
   <si>
     <t>变化：</t>
@@ -110,10 +142,10 @@
     <t>第四部分</t>
   </si>
   <si>
-    <t>单孔装煤量偏差变化 kg</t>
-  </si>
-  <si>
-    <t>单孔产焦量 t</t>
+    <t xml:space="preserve">单孔装煤量偏差变化 kg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">单孔产焦量 t</t>
   </si>
   <si>
     <t>100kg/孔影响吨焦耗热量:</t>
@@ -158,6 +190,9 @@
     <t>差额</t>
   </si>
   <si>
+    <t>CK45_L1R_CI_45COG_1d_acc</t>
+  </si>
+  <si>
     <t>月份</t>
   </si>
   <si>
@@ -182,6 +217,42 @@
     <t>入炉煤水分变化</t>
   </si>
   <si>
+    <t>8月</t>
+  </si>
+  <si>
+    <t>9月</t>
+  </si>
+  <si>
+    <t>10月</t>
+  </si>
+  <si>
+    <t>11月</t>
+  </si>
+  <si>
+    <t>12月</t>
+  </si>
+  <si>
+    <t>1月</t>
+  </si>
+  <si>
+    <t>2月</t>
+  </si>
+  <si>
+    <t>3月</t>
+  </si>
+  <si>
+    <t>4月</t>
+  </si>
+  <si>
+    <t>5月</t>
+  </si>
+  <si>
+    <t>6月</t>
+  </si>
+  <si>
+    <t>7月</t>
+  </si>
+  <si>
     <t>每天CK67_FQ1304_1305COG_1d_acc和当天总产焦量比值，为每天的单耗，再求相应均值</t>
   </si>
   <si>
@@ -200,51 +271,7 @@
     <t>计算每日“实际出焦孔数”和“计划出焦孔数”的差值，并求相应平均值</t>
   </si>
   <si>
-    <t>本月</t>
-  </si>
-  <si>
-    <t>本月</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>version</t>
-  </si>
-  <si>
-    <t>CK45_L1R_CI_45COG_1d_acc</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>#-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5#</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -252,67 +279,35 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0.0"/>
-    <numFmt numFmtId="178" formatCode="0.000"/>
+    <numFmt numFmtId="160" formatCode="0.00_ "/>
+    <numFmt numFmtId="161" formatCode="0.0"/>
+    <numFmt numFmtId="162" formatCode="0.000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
+      <name val="Calibri"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
       <b/>
+      <color theme="1"/>
       <sz val="14"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
       <b/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Helvetica"/>
+      <color indexed="63"/>
       <sz val="9.75"/>
-      <color indexed="63"/>
-      <name val="Helvetica"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Arial"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -320,7 +315,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -732,169 +727,153 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="9" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="58">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="2" borderId="0" numFmtId="14" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf fontId="2" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="2" fillId="2" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="2" borderId="3" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="2" borderId="4" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="2" borderId="5" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="2" borderId="6" numFmtId="160" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="2" borderId="7" numFmtId="160" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="2" borderId="8" numFmtId="160" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="160" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="2" fillId="2" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="2" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="2" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf fontId="0" fillId="2" borderId="12" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="2" borderId="3" numFmtId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="2" borderId="4" numFmtId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="2" borderId="12" numFmtId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="2" borderId="13" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="2" borderId="14" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="2" borderId="15" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="10" xfId="1" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="3" borderId="16" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="2" borderId="17" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="3" borderId="17" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="2" borderId="17" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="2" borderId="17" numFmtId="10" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="2" borderId="18" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf fontId="2" fillId="2" borderId="19" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="2" borderId="3" numFmtId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="2" borderId="4" numFmtId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="2" borderId="12" numFmtId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="0" fillId="2" borderId="20" numFmtId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="2" borderId="21" numFmtId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="2" borderId="22" numFmtId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="2" borderId="20" numFmtId="161" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="2" borderId="21" numFmtId="161" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="2" borderId="22" numFmtId="161" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="2" fillId="2" borderId="23" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="2" fillId="2" borderId="24" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="2" borderId="4" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="2" borderId="4" numFmtId="162" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="2" borderId="25" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="2" borderId="26" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="2" borderId="27" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="2" borderId="28" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="2" borderId="29" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="22" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="10" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="14" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
@@ -903,21 +882,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+  <mc:AlternateContent>
+    <mc:Choice Requires="c14">
       <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
@@ -936,7 +910,10 @@
           <c:dPt>
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
+            <c:spPr bwMode="auto">
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -950,7 +927,10 @@
           <c:dPt>
             <c:idx val="1"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
+            <c:spPr bwMode="auto">
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -964,7 +944,10 @@
           <c:dPt>
             <c:idx val="2"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
+            <c:spPr bwMode="auto">
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -978,7 +961,10 @@
           <c:dPt>
             <c:idx val="3"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
+            <c:spPr bwMode="auto">
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
@@ -992,7 +978,10 @@
           <c:dPt>
             <c:idx val="4"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
+            <c:spPr bwMode="auto">
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
               <a:solidFill>
                 <a:schemeClr val="accent5"/>
               </a:solidFill>
@@ -1004,14 +993,41 @@
             </c:spPr>
           </c:dPt>
           <c:dLbls>
-            <c:spPr>
+            <c:dLblPos val="bestFit"/>
+            <c:leaderLines>
+              <c:spPr bwMode="auto">
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+              </c:spPr>
+            </c:leaderLines>
+            <c:showBubbleSize val="0"/>
+            <c:showCatName val="1"/>
+            <c:showLeaderLines val="1"/>
+            <c:showLegendKey val="0"/>
+            <c:showPercent val="1"/>
+            <c:showSerName val="0"/>
+            <c:showVal val="0"/>
+            <c:spPr bwMode="auto">
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
               <a:noFill/>
               <a:ln>
                 <a:noFill/>
               </a:ln>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr rot="0" spcFirstLastPara="true" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="true">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
@@ -1032,27 +1048,6 @@
                 <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="bestFit"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="1"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="35000"/>
-                      <a:lumOff val="65000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:round/>
-                </a:ln>
-              </c:spPr>
-            </c:leaderLines>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1103,17 +1098,20 @@
           </c:val>
         </c:ser>
         <c:dLbls>
+          <c:showBubbleSize val="0"/>
+          <c:showCatName val="0"/>
+          <c:showLeaderLines val="1"/>
           <c:showLegendKey val="0"/>
+          <c:showPercent val="0"/>
+          <c:showSerName val="0"/>
           <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
         </c:dLbls>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
-      <c:spPr>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
         <a:noFill/>
         <a:ln>
           <a:noFill/>
@@ -1124,7 +1122,14 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr>
+  <c:spPr bwMode="auto">
+    <a:xfrm>
+      <a:off x="0" y="0"/>
+      <a:ext cx="0" cy="0"/>
+    </a:xfrm>
+    <a:prstGeom prst="rect">
+      <a:avLst/>
+    </a:prstGeom>
     <a:solidFill>
       <a:schemeClr val="bg2"/>
     </a:solidFill>
@@ -1150,19 +1155,19 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins l="0.69999999999999996" r="0.69999999999999996" t="0.75" b="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+  <mc:AlternateContent>
+    <mc:Choice Requires="c14">
       <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
@@ -1180,7 +1185,10 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:spPr>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
             </a:solidFill>
@@ -1238,12 +1246,12 @@
           </c:val>
         </c:ser>
         <c:dLbls>
+          <c:showBubbleSize val="0"/>
+          <c:showCatName val="0"/>
           <c:showLegendKey val="0"/>
+          <c:showPercent val="0"/>
+          <c:showSerName val="0"/>
           <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
@@ -1261,7 +1269,10 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
@@ -1274,7 +1285,7 @@
           </a:ln>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="true" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="true"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -1308,7 +1319,10 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
-          <c:spPr>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -1324,14 +1338,17 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
           <a:noFill/>
           <a:ln>
             <a:noFill/>
           </a:ln>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="true" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="true"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -1354,7 +1371,10 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:spPr>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
         <a:noFill/>
         <a:ln>
           <a:noFill/>
@@ -1365,7 +1385,14 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr>
+  <c:spPr bwMode="auto">
+    <a:xfrm>
+      <a:off x="0" y="0"/>
+      <a:ext cx="0" cy="0"/>
+    </a:xfrm>
+    <a:prstGeom prst="rect">
+      <a:avLst/>
+    </a:prstGeom>
     <a:solidFill>
       <a:schemeClr val="bg2"/>
     </a:solidFill>
@@ -1391,14 +1418,14 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins l="0.69999999999999996" r="0.69999999999999996" t="0.75" b="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
@@ -1408,15 +1435,15 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
+      <xdr:colOff>495299</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>1682750</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="图表 1"/>
+        <xdr:cNvPr id="4" name="图表 1" hidden="0"/>
         <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
+          <a:graphicFrameLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1444,11 +1471,11 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>1689100</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="图表 3"/>
+        <xdr:cNvPr id="5" name="图表 3" hidden="0"/>
         <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
+          <a:graphicFrameLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1466,8 +1493,291 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1670,1543 +1980,1518 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:V44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:O6"/>
+    <sheetView showGridLines="0" workbookViewId="0" zoomScale="100">
+      <selection activeCell="D38" activeCellId="0" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="15" width="7.875" customWidth="1"/>
-    <col min="16" max="16" width="6" customWidth="1"/>
-    <col min="19" max="19" width="8.125" customWidth="1"/>
-    <col min="20" max="22" width="7.625" hidden="1" customWidth="1"/>
-    <col min="23" max="24" width="7.625" customWidth="1"/>
+    <col customWidth="1" min="2" max="13" width="7.83203125"/>
+    <col customWidth="1" min="14" max="14" width="9"/>
+    <col customWidth="1" min="15" max="15" width="7.83203125"/>
+    <col customWidth="1" min="16" max="16" width="6"/>
+    <col customWidth="1" min="19" max="19" width="8.08203125"/>
+    <col customWidth="1" hidden="1" min="20" max="22" width="7.58203125"/>
+    <col customWidth="1" min="23" max="24" width="7.58203125"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" s="41" t="str">
+    <row r="3">
+      <c r="A3" s="1" t="str">
         <f>B5&amp;"炼焦单耗分析"</f>
         <v>4#-5#炼焦单耗分析</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" s="41"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="63" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1" t="str">
-        <f>IF(_metadata!$B$2="","",_metadata!$B$2)</f>
-        <v/>
-      </c>
-      <c r="O5" s="1"/>
-    </row>
-    <row r="6" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="42"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" s="43"/>
-      <c r="B7" s="2" t="e">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="3" t="str">
+        <f>IF(_metadata!$B$1="","",_metadata!$B$1)</f>
+        <v/>
+      </c>
+      <c r="O5" s="2"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="4"/>
+      <c r="B7" s="6" t="e">
         <f>IF((MONTH($N$5)-12)&lt;=0,MONTH($N$5)-12+12&amp;"月",MONTH($N$5)-12&amp;"月")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C7" s="3" t="e">
+      <c r="C7" s="7" t="e">
         <f>IF((MONTH($N$5)-11)&lt;=0,MONTH($N$5)-11+12&amp;"月",MONTH($N$5)-11&amp;"月")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D7" s="3" t="e">
+      <c r="D7" s="7" t="e">
         <f>IF((MONTH($N$5)-10)&lt;=0,MONTH($N$5)-10+12&amp;"月",MONTH($N$5)-10&amp;"月")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E7" s="3" t="e">
+      <c r="E7" s="7" t="e">
         <f>IF((MONTH($N$5)-9)&lt;=0,MONTH($N$5)-9+12&amp;"月",MONTH($N$5)-9&amp;"月")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F7" s="3" t="e">
+      <c r="F7" s="7" t="e">
         <f>IF((MONTH($N$5)-8)&lt;=0,MONTH($N$5)-8+12&amp;"月",MONTH($N$5)-8&amp;"月")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G7" s="3" t="e">
+      <c r="G7" s="7" t="e">
         <f>IF((MONTH($N$5)-7)&lt;=0,MONTH($N$5)-7+12&amp;"月",MONTH($N$5)-7&amp;"月")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H7" s="3" t="e">
+      <c r="H7" s="7" t="e">
         <f>IF((MONTH($N$5)-6)&lt;=0,MONTH($N$5)-6+12&amp;"月",MONTH($N$5)-6&amp;"月")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I7" s="3" t="e">
+      <c r="I7" s="7" t="e">
         <f>IF((MONTH($N$5)-5)&lt;=0,MONTH($N$5)-5+12&amp;"月",MONTH($N$5)-5&amp;"月")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J7" s="3" t="e">
+      <c r="J7" s="7" t="e">
         <f>IF((MONTH($N$5)-4)&lt;=0,MONTH($N$5)-4+12&amp;"月",MONTH($N$5)-4&amp;"月")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K7" s="3" t="e">
+      <c r="K7" s="7" t="e">
         <f>IF((MONTH($N$5)-3)&lt;=0,MONTH($N$5)-3+12&amp;"月",MONTH($N$5)-3&amp;"月")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L7" s="3" t="e">
+      <c r="L7" s="7" t="e">
         <f>IF((MONTH($N$5)-2)&lt;=0,MONTH($N$5)-2+12&amp;"月",MONTH($N$5)-2&amp;"月")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M7" s="3" t="e">
+      <c r="M7" s="7" t="e">
         <f>IF((MONTH($N$5)-1)&lt;=0,MONTH($N$5)-1+12&amp;"月",MONTH($N$5)-1&amp;"月")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N7" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A8" s="43"/>
-      <c r="B8" s="5" t="str">
+      <c r="N7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4"/>
+      <c r="B8" s="9" t="str">
         <f>IF(_danhao_day_all!E3="","",_danhao_day_all!E3)</f>
         <v/>
       </c>
-      <c r="C8" s="6" t="str">
+      <c r="C8" s="10" t="str">
         <f>IF(_danhao_day_all!E4="","",_danhao_day_all!E4)</f>
         <v/>
       </c>
-      <c r="D8" s="6" t="str">
+      <c r="D8" s="10" t="str">
         <f>IF(_danhao_day_all!E5="","",_danhao_day_all!E5)</f>
         <v/>
       </c>
-      <c r="E8" s="6" t="str">
+      <c r="E8" s="10" t="str">
         <f>IF(_danhao_day_all!E6="","",_danhao_day_all!E6)</f>
         <v/>
       </c>
-      <c r="F8" s="6" t="str">
+      <c r="F8" s="10" t="str">
         <f>IF(_danhao_day_all!E7="","",_danhao_day_all!E7)</f>
         <v/>
       </c>
-      <c r="G8" s="6" t="str">
+      <c r="G8" s="10" t="str">
         <f>IF(_danhao_day_all!E8="","",_danhao_day_all!E8)</f>
         <v/>
       </c>
-      <c r="H8" s="6" t="str">
+      <c r="H8" s="10" t="str">
         <f>IF(_danhao_day_all!E9="","",_danhao_day_all!E9)</f>
         <v/>
       </c>
-      <c r="I8" s="6" t="str">
+      <c r="I8" s="10" t="str">
         <f>IF(_danhao_day_all!E10="","",_danhao_day_all!E10)</f>
         <v/>
       </c>
-      <c r="J8" s="6" t="str">
+      <c r="J8" s="10" t="str">
         <f>IF(_danhao_day_all!E11="","",_danhao_day_all!E11)</f>
         <v/>
       </c>
-      <c r="K8" s="6" t="str">
+      <c r="K8" s="10" t="str">
         <f>IF(_danhao_day_all!E12="","",_danhao_day_all!E12)</f>
         <v/>
       </c>
-      <c r="L8" s="6" t="str">
+      <c r="L8" s="10" t="str">
         <f>IF(_danhao_day_all!E13="","",_danhao_day_all!E13)</f>
         <v/>
       </c>
-      <c r="M8" s="6" t="str">
+      <c r="M8" s="10" t="str">
         <f>IF(_danhao_day_all!E14="","",_danhao_day_all!E14)</f>
         <v/>
       </c>
-      <c r="N8" s="6" t="str">
+      <c r="N8" s="10" t="str">
         <f>IF(_danhao_day_all!E15="","",_danhao_day_all!E15)</f>
         <v/>
       </c>
-      <c r="O8" s="7" t="str">
+      <c r="O8" s="11" t="str">
         <f>IF(_danhao_day_all!E16="","",_danhao_day_all!E16)</f>
         <v/>
       </c>
-      <c r="Q8" s="8"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-    </row>
-    <row r="10" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="44" t="s">
+      <c r="Q8" s="12"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="15"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="4"/>
+      <c r="B11" s="6" t="e">
+        <f>IF((MONTH($N$5)-12)&lt;=0,MONTH($N$5)-12+12&amp;"月",MONTH($N$5)-12&amp;"月")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C11" s="7" t="e">
+        <f>IF((MONTH($N$5)-11)&lt;=0,MONTH($N$5)-11+12&amp;"月",MONTH($N$5)-11&amp;"月")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D11" s="7" t="e">
+        <f>IF((MONTH($N$5)-10)&lt;=0,MONTH($N$5)-10+12&amp;"月",MONTH($N$5)-10&amp;"月")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E11" s="7" t="e">
+        <f>IF((MONTH($N$5)-9)&lt;=0,MONTH($N$5)-9+12&amp;"月",MONTH($N$5)-9&amp;"月")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F11" s="7" t="e">
+        <f>IF((MONTH($N$5)-8)&lt;=0,MONTH($N$5)-8+12&amp;"月",MONTH($N$5)-8&amp;"月")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G11" s="7" t="e">
+        <f>IF((MONTH($N$5)-7)&lt;=0,MONTH($N$5)-7+12&amp;"月",MONTH($N$5)-7&amp;"月")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H11" s="7" t="e">
+        <f>IF((MONTH($N$5)-6)&lt;=0,MONTH($N$5)-6+12&amp;"月",MONTH($N$5)-6&amp;"月")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I11" s="7" t="e">
+        <f>IF((MONTH($N$5)-5)&lt;=0,MONTH($N$5)-5+12&amp;"月",MONTH($N$5)-5&amp;"月")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J11" s="7" t="e">
+        <f>IF((MONTH($N$5)-4)&lt;=0,MONTH($N$5)-4+12&amp;"月",MONTH($N$5)-4&amp;"月")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K11" s="7" t="e">
+        <f>IF((MONTH($N$5)-3)&lt;=0,MONTH($N$5)-3+12&amp;"月",MONTH($N$5)-3&amp;"月")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L11" s="7" t="e">
+        <f>IF((MONTH($N$5)-2)&lt;=0,MONTH($N$5)-2+12&amp;"月",MONTH($N$5)-2&amp;"月")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M11" s="7" t="e">
+        <f>IF((MONTH($N$5)-1)&lt;=0,MONTH($N$5)-1+12&amp;"月",MONTH($N$5)-1&amp;"月")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N11" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="45"/>
-      <c r="N10" s="45"/>
-      <c r="O10" s="46"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A11" s="43"/>
-      <c r="B11" s="2" t="e">
-        <f>IF((MONTH($N$5)-12)&lt;=0,MONTH($N$5)-12+12&amp;"月",MONTH($N$5)-12&amp;"月")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C11" s="3" t="e">
-        <f>IF((MONTH($N$5)-11)&lt;=0,MONTH($N$5)-11+12&amp;"月",MONTH($N$5)-11&amp;"月")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D11" s="3" t="e">
-        <f>IF((MONTH($N$5)-10)&lt;=0,MONTH($N$5)-10+12&amp;"月",MONTH($N$5)-10&amp;"月")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E11" s="3" t="e">
-        <f>IF((MONTH($N$5)-9)&lt;=0,MONTH($N$5)-9+12&amp;"月",MONTH($N$5)-9&amp;"月")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F11" s="3" t="e">
-        <f>IF((MONTH($N$5)-8)&lt;=0,MONTH($N$5)-8+12&amp;"月",MONTH($N$5)-8&amp;"月")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G11" s="3" t="e">
-        <f>IF((MONTH($N$5)-7)&lt;=0,MONTH($N$5)-7+12&amp;"月",MONTH($N$5)-7&amp;"月")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H11" s="3" t="e">
-        <f>IF((MONTH($N$5)-6)&lt;=0,MONTH($N$5)-6+12&amp;"月",MONTH($N$5)-6&amp;"月")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I11" s="3" t="e">
-        <f>IF((MONTH($N$5)-5)&lt;=0,MONTH($N$5)-5+12&amp;"月",MONTH($N$5)-5&amp;"月")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J11" s="3" t="e">
-        <f>IF((MONTH($N$5)-4)&lt;=0,MONTH($N$5)-4+12&amp;"月",MONTH($N$5)-4&amp;"月")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K11" s="3" t="e">
-        <f>IF((MONTH($N$5)-3)&lt;=0,MONTH($N$5)-3+12&amp;"月",MONTH($N$5)-3&amp;"月")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L11" s="3" t="e">
-        <f>IF((MONTH($N$5)-2)&lt;=0,MONTH($N$5)-2+12&amp;"月",MONTH($N$5)-2&amp;"月")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M11" s="3" t="e">
-        <f>IF((MONTH($N$5)-1)&lt;=0,MONTH($N$5)-1+12&amp;"月",MONTH($N$5)-1&amp;"月")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N11" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="O11" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A12" s="43"/>
-      <c r="B12" s="10" t="str">
+      <c r="O11" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4"/>
+      <c r="B12" s="17" t="str">
         <f>IF(_danhao_day_all!F3="","",_danhao_day_all!F3)</f>
         <v/>
       </c>
-      <c r="C12" s="11" t="str">
+      <c r="C12" s="18" t="str">
         <f>IF(_danhao_day_all!F4="","",_danhao_day_all!F4)</f>
         <v/>
       </c>
-      <c r="D12" s="11" t="str">
+      <c r="D12" s="18" t="str">
         <f>IF(_danhao_day_all!F5="","",_danhao_day_all!F5)</f>
         <v/>
       </c>
-      <c r="E12" s="11" t="str">
+      <c r="E12" s="18" t="str">
         <f>IF(_danhao_day_all!F6="","",_danhao_day_all!F6)</f>
         <v/>
       </c>
-      <c r="F12" s="11" t="str">
+      <c r="F12" s="18" t="str">
         <f>IF(_danhao_day_all!F7="","",_danhao_day_all!F7)</f>
         <v/>
       </c>
-      <c r="G12" s="11" t="str">
+      <c r="G12" s="18" t="str">
         <f>IF(_danhao_day_all!F8="","",_danhao_day_all!F8)</f>
         <v/>
       </c>
-      <c r="H12" s="11" t="str">
+      <c r="H12" s="18" t="str">
         <f>IF(_danhao_day_all!F9="","",_danhao_day_all!F9)</f>
         <v/>
       </c>
-      <c r="I12" s="11" t="str">
+      <c r="I12" s="18" t="str">
         <f>IF(_danhao_day_all!F10="","",_danhao_day_all!F10)</f>
         <v/>
       </c>
-      <c r="J12" s="11" t="str">
+      <c r="J12" s="18" t="str">
         <f>IF(_danhao_day_all!F11="","",_danhao_day_all!F11)</f>
         <v/>
       </c>
-      <c r="K12" s="11" t="str">
+      <c r="K12" s="18" t="str">
         <f>IF(_danhao_day_all!F12="","",_danhao_day_all!F12)</f>
         <v/>
       </c>
-      <c r="L12" s="11" t="str">
+      <c r="L12" s="18" t="str">
         <f>IF(_danhao_day_all!F13="","",_danhao_day_all!F13)</f>
         <v/>
       </c>
-      <c r="M12" s="11" t="str">
+      <c r="M12" s="18" t="str">
         <f>IF(_danhao_day_all!F14="","",_danhao_day_all!F14)</f>
         <v/>
       </c>
-      <c r="N12" s="11" t="str">
+      <c r="N12" s="18" t="str">
         <f>IF(_danhao_day_all!F15="","",_danhao_day_all!F15)</f>
         <v/>
       </c>
-      <c r="O12" s="12" t="str">
+      <c r="O12" s="19" t="str">
         <f>IF(_danhao_day_all!F16="","",_danhao_day_all!F16)</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A13" s="47"/>
-      <c r="B13" s="48" t="s">
+    <row r="13">
+      <c r="A13" s="20"/>
+      <c r="B13" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="2">
+        <v>51</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22">
+        <v>0.76000000000000001</v>
+      </c>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2">
+        <f>E13/I13/1000</f>
+        <v>0.067105263157894737</v>
+      </c>
+      <c r="O13" s="23"/>
+      <c r="V13" s="24"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="20"/>
+      <c r="B14" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="1">
-        <v>51</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="H13" s="49"/>
-      <c r="I13" s="13">
-        <v>0.76</v>
-      </c>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1">
-        <f>0.051/0.76</f>
-        <v>6.7105263157894737E-2</v>
-      </c>
-      <c r="O13" s="14"/>
-      <c r="V13" s="15"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A14" s="47"/>
-      <c r="B14" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="18">
+      <c r="C14" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="28">
         <f ca="1">IF(V14&lt;0,"↓"&amp;TEXT(V14,"0.00%"),IF(V14=0,0,"↑"&amp;TEXT(V14,"0.00%")))</f>
         <v>0</v>
       </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" s="50"/>
-      <c r="I14" s="18">
+      <c r="F14" s="29"/>
+      <c r="G14" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28">
         <f ca="1">V14*N13*100</f>
         <v>0</v>
       </c>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="20"/>
-      <c r="U14" t="s">
-        <v>12</v>
-      </c>
-      <c r="V14">
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="30"/>
+      <c r="U14" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="V14" s="0">
         <f ca="1">(VLOOKUP(B14,_danhao_day_all!D3:N16,3,FALSE)-VLOOKUP(D14,_danhao_day_all!D3:N16,3,FALSE))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-    </row>
-    <row r="16" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="51"/>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A17" s="47"/>
-      <c r="B17" s="2" t="e">
+    <row r="15">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="20"/>
+      <c r="B17" s="6" t="e">
         <f>IF((MONTH($N$5)-12)&lt;=0,MONTH($N$5)-12+12&amp;"月",MONTH($N$5)-12&amp;"月")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C17" s="3" t="e">
+      <c r="C17" s="7" t="e">
         <f>IF((MONTH($N$5)-11)&lt;=0,MONTH($N$5)-11+12&amp;"月",MONTH($N$5)-11&amp;"月")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D17" s="3" t="e">
+      <c r="D17" s="7" t="e">
         <f>IF((MONTH($N$5)-10)&lt;=0,MONTH($N$5)-10+12&amp;"月",MONTH($N$5)-10&amp;"月")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E17" s="3" t="e">
+      <c r="E17" s="7" t="e">
         <f>IF((MONTH($N$5)-9)&lt;=0,MONTH($N$5)-9+12&amp;"月",MONTH($N$5)-9&amp;"月")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F17" s="3" t="e">
+      <c r="F17" s="7" t="e">
         <f>IF((MONTH($N$5)-8)&lt;=0,MONTH($N$5)-8+12&amp;"月",MONTH($N$5)-8&amp;"月")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G17" s="3" t="e">
+      <c r="G17" s="7" t="e">
         <f>IF((MONTH($N$5)-7)&lt;=0,MONTH($N$5)-7+12&amp;"月",MONTH($N$5)-7&amp;"月")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H17" s="3" t="e">
+      <c r="H17" s="7" t="e">
         <f>IF((MONTH($N$5)-6)&lt;=0,MONTH($N$5)-6+12&amp;"月",MONTH($N$5)-6&amp;"月")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I17" s="3" t="e">
+      <c r="I17" s="7" t="e">
         <f>IF((MONTH($N$5)-5)&lt;=0,MONTH($N$5)-5+12&amp;"月",MONTH($N$5)-5&amp;"月")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J17" s="3" t="e">
+      <c r="J17" s="7" t="e">
         <f>IF((MONTH($N$5)-4)&lt;=0,MONTH($N$5)-4+12&amp;"月",MONTH($N$5)-4&amp;"月")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K17" s="3" t="e">
+      <c r="K17" s="7" t="e">
         <f>IF((MONTH($N$5)-3)&lt;=0,MONTH($N$5)-3+12&amp;"月",MONTH($N$5)-3&amp;"月")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L17" s="3" t="e">
+      <c r="L17" s="7" t="e">
         <f>IF((MONTH($N$5)-2)&lt;=0,MONTH($N$5)-2+12&amp;"月",MONTH($N$5)-2&amp;"月")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M17" s="3" t="e">
+      <c r="M17" s="7" t="e">
         <f>IF((MONTH($N$5)-1)&lt;=0,MONTH($N$5)-1+12&amp;"月",MONTH($N$5)-1&amp;"月")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N17" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="O17" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A18" s="47"/>
-      <c r="B18" s="21" t="str">
+      <c r="N17" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="O17" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="20"/>
+      <c r="B18" s="32" t="str">
         <f>IF(_danhao_day_all!G3="","",_danhao_day_all!G3)</f>
         <v/>
       </c>
-      <c r="C18" s="22" t="str">
+      <c r="C18" s="33" t="str">
         <f>IF(_danhao_day_all!G4="","",_danhao_day_all!G4)</f>
         <v/>
       </c>
-      <c r="D18" s="22" t="str">
+      <c r="D18" s="33" t="str">
         <f>IF(_danhao_day_all!G5="","",_danhao_day_all!G5)</f>
         <v/>
       </c>
-      <c r="E18" s="22" t="str">
+      <c r="E18" s="33" t="str">
         <f>IF(_danhao_day_all!G6="","",_danhao_day_all!G6)</f>
         <v/>
       </c>
-      <c r="F18" s="22" t="str">
+      <c r="F18" s="33" t="str">
         <f>IF(_danhao_day_all!G7="","",_danhao_day_all!G7)</f>
         <v/>
       </c>
-      <c r="G18" s="22" t="str">
+      <c r="G18" s="33" t="str">
         <f>IF(_danhao_day_all!G8="","",_danhao_day_all!G8)</f>
         <v/>
       </c>
-      <c r="H18" s="22" t="str">
+      <c r="H18" s="33" t="str">
         <f>IF(_danhao_day_all!G9="","",_danhao_day_all!G9)</f>
         <v/>
       </c>
-      <c r="I18" s="22" t="str">
+      <c r="I18" s="33" t="str">
         <f>IF(_danhao_day_all!G10="","",_danhao_day_all!G10)</f>
         <v/>
       </c>
-      <c r="J18" s="22" t="str">
+      <c r="J18" s="33" t="str">
         <f>IF(_danhao_day_all!G11="","",_danhao_day_all!G11)</f>
         <v/>
       </c>
-      <c r="K18" s="22" t="str">
+      <c r="K18" s="33" t="str">
         <f>IF(_danhao_day_all!G12="","",_danhao_day_all!G12)</f>
         <v/>
       </c>
-      <c r="L18" s="22" t="str">
+      <c r="L18" s="33" t="str">
         <f>IF(_danhao_day_all!G13="","",_danhao_day_all!G13)</f>
         <v/>
       </c>
-      <c r="M18" s="22" t="str">
+      <c r="M18" s="33" t="str">
         <f>IF(_danhao_day_all!G14="","",_danhao_day_all!G14)</f>
         <v/>
       </c>
-      <c r="N18" s="22" t="str">
+      <c r="N18" s="33" t="str">
         <f>IF(_danhao_day_all!G15="","",_danhao_day_all!G15)</f>
         <v/>
       </c>
-      <c r="O18" s="23" t="str">
+      <c r="O18" s="34" t="str">
         <f>IF(_danhao_day_all!G16="","",_danhao_day_all!G16)</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A19" s="47"/>
-      <c r="B19" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49">
+    <row r="19">
+      <c r="A19" s="20"/>
+      <c r="B19" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22">
         <v>17100</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="2">
         <f>IF(_danhao_day_all!A5="",13700,_danhao_day_all!A5)</f>
         <v>13700</v>
       </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="49"/>
-      <c r="I19" s="13">
-        <v>3.4</v>
-      </c>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1">
+      <c r="F19" s="2"/>
+      <c r="G19" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22">
+        <v>3.3999999999999999</v>
+      </c>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2">
         <f>I19*100/E19</f>
-        <v>2.4817518248175182E-2</v>
-      </c>
-      <c r="O19" s="14"/>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A20" s="47"/>
-      <c r="B20" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="18">
+        <v>0.024817518248175182</v>
+      </c>
+      <c r="O19" s="23"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="20"/>
+      <c r="B20" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="28">
         <f ca="1">IF(V20&lt;0,"↓"&amp;TEXT(V20,"0"),IF(V20=0,0,"↑"&amp;TEXT(V20,"0")))</f>
         <v>0</v>
       </c>
-      <c r="F20" s="19"/>
-      <c r="G20" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" s="50"/>
-      <c r="I20" s="18">
+      <c r="F20" s="29"/>
+      <c r="G20" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28">
         <f ca="1">V20*N19/100</f>
         <v>0</v>
       </c>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="20"/>
-      <c r="U20" t="s">
-        <v>19</v>
-      </c>
-      <c r="V20">
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="30"/>
+      <c r="U20" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="V20" s="0">
         <f ca="1">VLOOKUP(B20,_danhao_day_all!D10:N23,4,FALSE)-VLOOKUP(D20,_danhao_day_all!D10:N23,4,FALSE)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-    </row>
-    <row r="22" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="51"/>
-      <c r="L22" s="51"/>
-      <c r="M22" s="51"/>
-      <c r="N22" s="51"/>
-      <c r="O22" s="51"/>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A23" s="43"/>
-      <c r="B23" s="2" t="e">
+    <row r="21">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="4"/>
+      <c r="B23" s="6" t="e">
         <f>IF((MONTH($N$5)-12)&lt;=0,MONTH($N$5)-12+12&amp;"月",MONTH($N$5)-12&amp;"月")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C23" s="3" t="e">
+      <c r="C23" s="7" t="e">
         <f>IF((MONTH($N$5)-11)&lt;=0,MONTH($N$5)-11+12&amp;"月",MONTH($N$5)-11&amp;"月")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D23" s="3" t="e">
+      <c r="D23" s="7" t="e">
         <f>IF((MONTH($N$5)-10)&lt;=0,MONTH($N$5)-10+12&amp;"月",MONTH($N$5)-10&amp;"月")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E23" s="3" t="e">
+      <c r="E23" s="7" t="e">
         <f>IF((MONTH($N$5)-9)&lt;=0,MONTH($N$5)-9+12&amp;"月",MONTH($N$5)-9&amp;"月")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F23" s="3" t="e">
+      <c r="F23" s="7" t="e">
         <f>IF((MONTH($N$5)-8)&lt;=0,MONTH($N$5)-8+12&amp;"月",MONTH($N$5)-8&amp;"月")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G23" s="3" t="e">
+      <c r="G23" s="7" t="e">
         <f>IF((MONTH($N$5)-7)&lt;=0,MONTH($N$5)-7+12&amp;"月",MONTH($N$5)-7&amp;"月")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H23" s="3" t="e">
+      <c r="H23" s="7" t="e">
         <f>IF((MONTH($N$5)-6)&lt;=0,MONTH($N$5)-6+12&amp;"月",MONTH($N$5)-6&amp;"月")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I23" s="3" t="e">
+      <c r="I23" s="7" t="e">
         <f>IF((MONTH($N$5)-5)&lt;=0,MONTH($N$5)-5+12&amp;"月",MONTH($N$5)-5&amp;"月")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J23" s="3" t="e">
+      <c r="J23" s="7" t="e">
         <f>IF((MONTH($N$5)-4)&lt;=0,MONTH($N$5)-4+12&amp;"月",MONTH($N$5)-4&amp;"月")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K23" s="3" t="e">
+      <c r="K23" s="7" t="e">
         <f>IF((MONTH($N$5)-3)&lt;=0,MONTH($N$5)-3+12&amp;"月",MONTH($N$5)-3&amp;"月")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L23" s="3" t="e">
+      <c r="L23" s="7" t="e">
         <f>IF((MONTH($N$5)-2)&lt;=0,MONTH($N$5)-2+12&amp;"月",MONTH($N$5)-2&amp;"月")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M23" s="3" t="e">
+      <c r="M23" s="7" t="e">
         <f>IF((MONTH($N$5)-1)&lt;=0,MONTH($N$5)-1+12&amp;"月",MONTH($N$5)-1&amp;"月")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N23" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="O23" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A24" s="43"/>
-      <c r="B24" s="21" t="str">
+      <c r="N23" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="O23" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="4"/>
+      <c r="B24" s="32" t="str">
         <f>IF(_danhao_day_all!H3="","",_danhao_day_all!H3)</f>
         <v/>
       </c>
-      <c r="C24" s="22" t="str">
+      <c r="C24" s="33" t="str">
         <f>IF(_danhao_day_all!H4="","",_danhao_day_all!H4)</f>
         <v/>
       </c>
-      <c r="D24" s="22" t="str">
+      <c r="D24" s="33" t="str">
         <f>IF(_danhao_day_all!H5="","",_danhao_day_all!H5)</f>
         <v/>
       </c>
-      <c r="E24" s="22" t="str">
+      <c r="E24" s="33" t="str">
         <f>IF(_danhao_day_all!H6="","",_danhao_day_all!H6)</f>
         <v/>
       </c>
-      <c r="F24" s="22" t="str">
+      <c r="F24" s="33" t="str">
         <f>IF(_danhao_day_all!H7="","",_danhao_day_all!H7)</f>
         <v/>
       </c>
-      <c r="G24" s="22" t="str">
+      <c r="G24" s="33" t="str">
         <f>IF(_danhao_day_all!H8="","",_danhao_day_all!H8)</f>
         <v/>
       </c>
-      <c r="H24" s="22" t="str">
+      <c r="H24" s="33" t="str">
         <f>IF(_danhao_day_all!H9="","",_danhao_day_all!H9)</f>
         <v/>
       </c>
-      <c r="I24" s="22" t="str">
+      <c r="I24" s="33" t="str">
         <f>IF(_danhao_day_all!H10="","",_danhao_day_all!H10)</f>
         <v/>
       </c>
-      <c r="J24" s="22" t="str">
+      <c r="J24" s="33" t="str">
         <f>IF(_danhao_day_all!H11="","",_danhao_day_all!H11)</f>
         <v/>
       </c>
-      <c r="K24" s="22" t="str">
+      <c r="K24" s="33" t="str">
         <f>IF(_danhao_day_all!H12="","",_danhao_day_all!H12)</f>
         <v/>
       </c>
-      <c r="L24" s="22" t="str">
+      <c r="L24" s="33" t="str">
         <f>IF(_danhao_day_all!H13="","",_danhao_day_all!H13)</f>
         <v/>
       </c>
-      <c r="M24" s="22" t="str">
+      <c r="M24" s="33" t="str">
         <f>IF(_danhao_day_all!H14="","",_danhao_day_all!H14)</f>
         <v/>
       </c>
-      <c r="N24" s="22" t="str">
+      <c r="N24" s="33" t="str">
         <f>IF(_danhao_day_all!H15="","",_danhao_day_all!H15)</f>
         <v/>
       </c>
-      <c r="O24" s="23" t="str">
+      <c r="O24" s="34" t="str">
         <f>IF(_danhao_day_all!H16="","",_danhao_day_all!H16)</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A25" s="43"/>
-      <c r="B25" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49">
+    <row r="25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22">
         <v>3250</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E25" s="22">
         <f>IF(_danhao_day_all!A6="",3250,_danhao_day_all!A6)</f>
         <v>3250</v>
       </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="H25" s="49"/>
-      <c r="I25" s="13">
-        <v>3.8</v>
-      </c>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1">
+      <c r="F25" s="2"/>
+      <c r="G25" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22">
+        <v>3.7999999999999998</v>
+      </c>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2">
         <f>I25*100/E25</f>
         <v>0.11692307692307692</v>
       </c>
-      <c r="O25" s="14"/>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A26" s="43"/>
-      <c r="B26" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" s="18">
+      <c r="O25" s="23"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="4"/>
+      <c r="B26" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="28">
         <f ca="1">IF(V26&lt;0,"↓"&amp;TEXT(V26,"0"),IF(V26=0,0,"↑"&amp;TEXT(V26,"0")))</f>
         <v>0</v>
       </c>
-      <c r="F26" s="19"/>
-      <c r="G26" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="H26" s="50"/>
-      <c r="I26" s="18">
-        <f ca="1">V26*N25/100</f>
+      <c r="F26" s="29"/>
+      <c r="G26" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28">
         <v>0</v>
       </c>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="20"/>
-      <c r="U26" t="s">
-        <v>19</v>
-      </c>
-      <c r="V26">
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="30"/>
+      <c r="U26" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="V26" s="0">
         <f ca="1">VLOOKUP(B26,_danhao_day_all!D10:N23,5,FALSE)-VLOOKUP(D26,_danhao_day_all!D10:N23,5,FALSE)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-    </row>
-    <row r="28" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="51"/>
-      <c r="K28" s="51"/>
-      <c r="L28" s="51"/>
-      <c r="M28" s="51"/>
-      <c r="N28" s="51"/>
-      <c r="O28" s="51"/>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A29" s="43"/>
-      <c r="B29" s="2" t="e">
+    <row r="27">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="31"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="4"/>
+      <c r="B29" s="6" t="e">
         <f>IF((MONTH($N$5)-12)&lt;=0,MONTH($N$5)-12+12&amp;"月",MONTH($N$5)-12&amp;"月")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C29" s="3" t="e">
+      <c r="C29" s="7" t="e">
         <f>IF((MONTH($N$5)-11)&lt;=0,MONTH($N$5)-11+12&amp;"月",MONTH($N$5)-11&amp;"月")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D29" s="3" t="e">
+      <c r="D29" s="7" t="e">
         <f>IF((MONTH($N$5)-10)&lt;=0,MONTH($N$5)-10+12&amp;"月",MONTH($N$5)-10&amp;"月")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E29" s="3" t="e">
+      <c r="E29" s="7" t="e">
         <f>IF((MONTH($N$5)-9)&lt;=0,MONTH($N$5)-9+12&amp;"月",MONTH($N$5)-9&amp;"月")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F29" s="3" t="e">
+      <c r="F29" s="7" t="e">
         <f>IF((MONTH($N$5)-8)&lt;=0,MONTH($N$5)-8+12&amp;"月",MONTH($N$5)-8&amp;"月")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G29" s="3" t="e">
+      <c r="G29" s="7" t="e">
         <f>IF((MONTH($N$5)-7)&lt;=0,MONTH($N$5)-7+12&amp;"月",MONTH($N$5)-7&amp;"月")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H29" s="3" t="e">
+      <c r="H29" s="7" t="e">
         <f>IF((MONTH($N$5)-6)&lt;=0,MONTH($N$5)-6+12&amp;"月",MONTH($N$5)-6&amp;"月")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I29" s="3" t="e">
+      <c r="I29" s="7" t="e">
         <f>IF((MONTH($N$5)-5)&lt;=0,MONTH($N$5)-5+12&amp;"月",MONTH($N$5)-5&amp;"月")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J29" s="3" t="e">
+      <c r="J29" s="7" t="e">
         <f>IF((MONTH($N$5)-4)&lt;=0,MONTH($N$5)-4+12&amp;"月",MONTH($N$5)-4&amp;"月")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K29" s="3" t="e">
+      <c r="K29" s="7" t="e">
         <f>IF((MONTH($N$5)-3)&lt;=0,MONTH($N$5)-3+12&amp;"月",MONTH($N$5)-3&amp;"月")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L29" s="3" t="e">
+      <c r="L29" s="7" t="e">
         <f>IF((MONTH($N$5)-2)&lt;=0,MONTH($N$5)-2+12&amp;"月",MONTH($N$5)-2&amp;"月")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M29" s="3" t="e">
+      <c r="M29" s="7" t="e">
         <f>IF((MONTH($N$5)-1)&lt;=0,MONTH($N$5)-1+12&amp;"月",MONTH($N$5)-1&amp;"月")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N29" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="O29" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A30" s="43"/>
-      <c r="B30" s="26" t="str">
+      <c r="N29" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="O29" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="4"/>
+      <c r="B30" s="35" t="str">
         <f>IF(_danhao_day_all!I3="","",_danhao_day_all!I3*1000)</f>
         <v/>
       </c>
-      <c r="C30" s="27" t="str">
+      <c r="C30" s="36" t="str">
         <f>IF(_danhao_day_all!I4="","",_danhao_day_all!I4*1000)</f>
         <v/>
       </c>
-      <c r="D30" s="27" t="str">
+      <c r="D30" s="36" t="str">
         <f>IF(_danhao_day_all!I5="","",_danhao_day_all!I5*1000)</f>
         <v/>
       </c>
-      <c r="E30" s="27" t="str">
+      <c r="E30" s="36" t="str">
         <f>IF(_danhao_day_all!I6="","",_danhao_day_all!I6*1000)</f>
         <v/>
       </c>
-      <c r="F30" s="27" t="str">
+      <c r="F30" s="36" t="str">
         <f>IF(_danhao_day_all!I7="","",_danhao_day_all!I7*1000)</f>
         <v/>
       </c>
-      <c r="G30" s="27" t="str">
+      <c r="G30" s="36" t="str">
         <f>IF(_danhao_day_all!I8="","",_danhao_day_all!I8*1000)</f>
         <v/>
       </c>
-      <c r="H30" s="27" t="str">
+      <c r="H30" s="36" t="str">
         <f>IF(_danhao_day_all!I9="","",_danhao_day_all!I9*1000)</f>
         <v/>
       </c>
-      <c r="I30" s="27" t="str">
+      <c r="I30" s="36" t="str">
         <f>IF(_danhao_day_all!I10="","",_danhao_day_all!I10*1000)</f>
         <v/>
       </c>
-      <c r="J30" s="27" t="str">
+      <c r="J30" s="36" t="str">
         <f>IF(_danhao_day_all!I11="","",_danhao_day_all!I11*1000)</f>
         <v/>
       </c>
-      <c r="K30" s="27" t="str">
+      <c r="K30" s="36" t="str">
         <f>IF(_danhao_day_all!I12="","",_danhao_day_all!I12*1000)</f>
         <v/>
       </c>
-      <c r="L30" s="27" t="str">
+      <c r="L30" s="36" t="str">
         <f>IF(_danhao_day_all!I13="","",_danhao_day_all!I13*1000)</f>
         <v/>
       </c>
-      <c r="M30" s="27" t="str">
+      <c r="M30" s="36" t="str">
         <f>IF(_danhao_day_all!I14="","",_danhao_day_all!I14*1000)</f>
         <v/>
       </c>
-      <c r="N30" s="27" t="str">
+      <c r="N30" s="36" t="str">
         <f>IF(_danhao_day_all!I15="","",_danhao_day_all!I15*1000)</f>
         <v/>
       </c>
-      <c r="O30" s="28" t="str">
+      <c r="O30" s="37" t="str">
         <f>IF(_danhao_day_all!I16="","",_danhao_day_all!I16*1000)</f>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A31" s="43"/>
-      <c r="B31" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49">
+    <row r="31">
+      <c r="A31" s="4"/>
+      <c r="B31" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22">
         <f>IF(B5="4.3m",15.3,21.5)</f>
         <v>21.5</v>
       </c>
-      <c r="E31" s="13">
+      <c r="E31" s="22">
         <f>_danhao_day_all!A7</f>
         <v>0</v>
       </c>
-      <c r="F31" s="1"/>
-      <c r="G31" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="H31" s="49"/>
-      <c r="I31" s="13">
+      <c r="F31" s="2"/>
+      <c r="G31" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22">
         <f>IF(B5="6#-7#",I25,I19)</f>
-        <v>3.4</v>
-      </c>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1">
+        <v>3.3999999999999999</v>
+      </c>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2">
         <f>I31*E31/(E31-0.1*0.76*0.89)-I31</f>
-        <v>-3.4</v>
-      </c>
-      <c r="O31" s="14"/>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A32" s="43"/>
-      <c r="B32" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F32" s="19">
+        <v>-3.3999999999999999</v>
+      </c>
+      <c r="O31" s="23"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="4"/>
+      <c r="B32" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" s="29">
         <f ca="1">IF(V32&lt;0,"↓"&amp;TEXT(V32*1000,"0"),IF(V32=0,0,"↑"&amp;TEXT(V32*1000,"0")))</f>
         <v>0</v>
       </c>
-      <c r="G32" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="H32" s="50"/>
-      <c r="I32" s="18">
+      <c r="G32" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28">
         <f ca="1">-V32*N31</f>
         <v>0</v>
       </c>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="20"/>
-      <c r="U32" t="s">
-        <v>19</v>
-      </c>
-      <c r="V32">
+      <c r="J32" s="26"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="26"/>
+      <c r="M32" s="26"/>
+      <c r="N32" s="26"/>
+      <c r="O32" s="30"/>
+      <c r="U32" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="V32" s="0">
         <f ca="1">VLOOKUP(B32,_danhao_day_all!D10:N23,6,FALSE)-VLOOKUP(D32,_danhao_day_all!D10:N23,6,FALSE)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-    </row>
-    <row r="34" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="B34" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="51"/>
-      <c r="H34" s="51"/>
-      <c r="I34" s="51"/>
-      <c r="J34" s="51"/>
-      <c r="K34" s="51"/>
-      <c r="L34" s="51"/>
-      <c r="M34" s="51"/>
-      <c r="N34" s="51"/>
-      <c r="O34" s="51"/>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A35" s="43"/>
-      <c r="B35" s="2" t="e">
+    <row r="33">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="31"/>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="4"/>
+      <c r="B35" s="6" t="e">
         <f>IF((MONTH($N$5)-12)&lt;=0,MONTH($N$5)-12+12&amp;"月",MONTH($N$5)-12&amp;"月")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C35" s="3" t="e">
+      <c r="C35" s="7" t="e">
         <f>IF((MONTH($N$5)-11)&lt;=0,MONTH($N$5)-11+12&amp;"月",MONTH($N$5)-11&amp;"月")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D35" s="3" t="e">
+      <c r="D35" s="7" t="e">
         <f>IF((MONTH($N$5)-10)&lt;=0,MONTH($N$5)-10+12&amp;"月",MONTH($N$5)-10&amp;"月")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E35" s="3" t="e">
+      <c r="E35" s="7" t="e">
         <f>IF((MONTH($N$5)-9)&lt;=0,MONTH($N$5)-9+12&amp;"月",MONTH($N$5)-9&amp;"月")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F35" s="3" t="e">
+      <c r="F35" s="7" t="e">
         <f>IF((MONTH($N$5)-8)&lt;=0,MONTH($N$5)-8+12&amp;"月",MONTH($N$5)-8&amp;"月")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G35" s="3" t="e">
+      <c r="G35" s="7" t="e">
         <f>IF((MONTH($N$5)-7)&lt;=0,MONTH($N$5)-7+12&amp;"月",MONTH($N$5)-7&amp;"月")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H35" s="3" t="e">
+      <c r="H35" s="7" t="e">
         <f>IF((MONTH($N$5)-6)&lt;=0,MONTH($N$5)-6+12&amp;"月",MONTH($N$5)-6&amp;"月")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I35" s="3" t="e">
+      <c r="I35" s="7" t="e">
         <f>IF((MONTH($N$5)-5)&lt;=0,MONTH($N$5)-5+12&amp;"月",MONTH($N$5)-5&amp;"月")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J35" s="3" t="e">
+      <c r="J35" s="7" t="e">
         <f>IF((MONTH($N$5)-4)&lt;=0,MONTH($N$5)-4+12&amp;"月",MONTH($N$5)-4&amp;"月")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K35" s="3" t="e">
+      <c r="K35" s="7" t="e">
         <f>IF((MONTH($N$5)-3)&lt;=0,MONTH($N$5)-3+12&amp;"月",MONTH($N$5)-3&amp;"月")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L35" s="3" t="e">
+      <c r="L35" s="7" t="e">
         <f>IF((MONTH($N$5)-2)&lt;=0,MONTH($N$5)-2+12&amp;"月",MONTH($N$5)-2&amp;"月")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M35" s="3" t="e">
+      <c r="M35" s="7" t="e">
         <f>IF((MONTH($N$5)-1)&lt;=0,MONTH($N$5)-1+12&amp;"月",MONTH($N$5)-1&amp;"月")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N35" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="O35" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A36" s="43"/>
-      <c r="B36" s="29" t="str">
+      <c r="N35" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="O35" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="4"/>
+      <c r="B36" s="38" t="str">
         <f>IF(_danhao_day_all!J3="","",_danhao_day_all!J3)</f>
         <v/>
       </c>
-      <c r="C36" s="30" t="str">
+      <c r="C36" s="39" t="str">
         <f>IF(_danhao_day_all!J4="","",_danhao_day_all!J4)</f>
         <v/>
       </c>
-      <c r="D36" s="30" t="str">
+      <c r="D36" s="39" t="str">
         <f>IF(_danhao_day_all!J5="","",_danhao_day_all!J5)</f>
         <v/>
       </c>
-      <c r="E36" s="30" t="str">
+      <c r="E36" s="39" t="str">
         <f>IF(_danhao_day_all!J6="","",_danhao_day_all!J6)</f>
         <v/>
       </c>
-      <c r="F36" s="30" t="str">
+      <c r="F36" s="39" t="str">
         <f>IF(_danhao_day_all!J7="","",_danhao_day_all!J7)</f>
         <v/>
       </c>
-      <c r="G36" s="30" t="str">
+      <c r="G36" s="39" t="str">
         <f>IF(_danhao_day_all!J8="","",_danhao_day_all!J8)</f>
         <v/>
       </c>
-      <c r="H36" s="30" t="str">
+      <c r="H36" s="39" t="str">
         <f>IF(_danhao_day_all!J9="","",_danhao_day_all!J9)</f>
         <v/>
       </c>
-      <c r="I36" s="30" t="str">
+      <c r="I36" s="39" t="str">
         <f>IF(_danhao_day_all!J10="","",_danhao_day_all!J10)</f>
         <v/>
       </c>
-      <c r="J36" s="30" t="str">
+      <c r="J36" s="39" t="str">
         <f>IF(_danhao_day_all!J11="","",_danhao_day_all!J11)</f>
         <v/>
       </c>
-      <c r="K36" s="30" t="str">
+      <c r="K36" s="39" t="str">
         <f>IF(_danhao_day_all!J12="","",_danhao_day_all!J12)</f>
         <v/>
       </c>
-      <c r="L36" s="30" t="str">
+      <c r="L36" s="39" t="str">
         <f>IF(_danhao_day_all!J13="","",_danhao_day_all!J13)</f>
         <v/>
       </c>
-      <c r="M36" s="30" t="str">
+      <c r="M36" s="39" t="str">
         <f>IF(_danhao_day_all!J14="","",_danhao_day_all!J14)</f>
         <v/>
       </c>
-      <c r="N36" s="30" t="str">
+      <c r="N36" s="39" t="str">
         <f>IF(_danhao_day_all!J15="","",_danhao_day_all!J15)</f>
         <v/>
       </c>
-      <c r="O36" s="31" t="str">
+      <c r="O36" s="40" t="str">
         <f>IF(_danhao_day_all!J16="","",_danhao_day_all!J16)</f>
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A37" s="43"/>
-      <c r="B37" s="48" t="s">
-        <v>28</v>
-      </c>
-      <c r="C37" s="49"/>
-      <c r="D37" s="49">
+    <row r="37">
+      <c r="A37" s="4"/>
+      <c r="B37" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22">
         <v>132</v>
       </c>
-      <c r="E37" s="13">
+      <c r="E37" s="22">
         <v>132</v>
       </c>
-      <c r="F37" s="1"/>
-      <c r="G37" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="H37" s="49"/>
-      <c r="I37" s="13">
+      <c r="F37" s="2"/>
+      <c r="G37" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22">
         <f>IF(B5="6#-7#",I25,I19)</f>
-        <v>3.4</v>
-      </c>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1">
+        <v>3.3999999999999999</v>
+      </c>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2">
         <f>I37/E37</f>
-        <v>2.5757575757575757E-2</v>
-      </c>
-      <c r="O37" s="14"/>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A38" s="43"/>
-      <c r="B38" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C38" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D38" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="E38" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F38" s="19">
+        <v>0.025757575757575757</v>
+      </c>
+      <c r="O37" s="23"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="4"/>
+      <c r="B38" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="F38" s="29">
         <f ca="1">IF(V38&lt;0,"↓"&amp;TEXT(V38,"0"),IF(V38=0,0,"↑"&amp;TEXT(V38,"0")))</f>
         <v>0</v>
       </c>
-      <c r="G38" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="H38" s="50"/>
-      <c r="I38" s="18">
+      <c r="G38" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" s="28"/>
+      <c r="I38" s="28">
         <f ca="1">V38*N37</f>
         <v>0</v>
       </c>
-      <c r="J38" s="17"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="20"/>
-      <c r="U38" t="s">
-        <v>19</v>
-      </c>
-      <c r="V38">
+      <c r="J38" s="26"/>
+      <c r="K38" s="26"/>
+      <c r="L38" s="26"/>
+      <c r="M38" s="26"/>
+      <c r="N38" s="26"/>
+      <c r="O38" s="30"/>
+      <c r="U38" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="V38" s="0">
         <f ca="1">VLOOKUP(B38,_danhao_day_all!D10:N23,7,FALSE)-VLOOKUP(D38,_danhao_day_all!D10:N23,7,FALSE)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-    </row>
-    <row r="40" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="B40" s="52" t="s">
-        <v>31</v>
-      </c>
-      <c r="C40" s="52"/>
-      <c r="D40" s="52"/>
-      <c r="E40" s="52"/>
-      <c r="F40" s="52"/>
-      <c r="G40" s="52"/>
-      <c r="H40" s="52"/>
-      <c r="I40" s="52"/>
-      <c r="J40" s="52"/>
-      <c r="K40" s="52"/>
-      <c r="L40" s="52"/>
-      <c r="M40" s="52"/>
-      <c r="N40" s="52"/>
-      <c r="O40" s="53"/>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A41" s="47"/>
-      <c r="B41" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="C41" s="32" t="s">
+    <row r="39">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D41" s="32" t="s">
+      <c r="B40" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="E41" s="32" t="s">
+      <c r="C40" s="41"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="41"/>
+      <c r="O40" s="42"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="20"/>
+      <c r="B41" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="F41" s="32" t="s">
+      <c r="C41" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="G41" s="32" t="s">
+      <c r="D41" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="H41" s="32" t="s">
+      <c r="E41" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="I41" s="54"/>
-      <c r="J41" s="54"/>
-      <c r="K41" s="54"/>
-      <c r="L41" s="54"/>
-      <c r="M41" s="54"/>
-      <c r="N41" s="54"/>
-      <c r="O41" s="55"/>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A42" s="47"/>
-      <c r="B42" s="33">
+      <c r="F41" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="G41" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="H41" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="16"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="20"/>
+      <c r="B42" s="44">
         <f ca="1">I14</f>
         <v>0</v>
       </c>
-      <c r="C42" s="33">
+      <c r="C42" s="44">
         <f ca="1">I20</f>
         <v>0</v>
       </c>
-      <c r="D42" s="33">
-        <f ca="1">I26</f>
+      <c r="D42" s="44">
+        <f>I26</f>
         <v>0</v>
       </c>
-      <c r="E42" s="33">
+      <c r="E42" s="44">
         <f ca="1">I32</f>
         <v>0</v>
       </c>
-      <c r="F42" s="33">
+      <c r="F42" s="44">
         <f ca="1">I38</f>
         <v>0</v>
       </c>
-      <c r="G42" s="33">
+      <c r="G42" s="44">
         <f ca="1">SUM(B42:F42)</f>
         <v>0</v>
       </c>
-      <c r="H42" s="32" t="e">
+      <c r="H42" s="43" t="e">
         <f ca="1">O8-VLOOKUP(D14,_danhao_day_all!D3:E16,2,FALSE)-G42</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I42" s="54"/>
-      <c r="J42" s="54"/>
-      <c r="K42" s="54"/>
-      <c r="L42" s="54"/>
-      <c r="M42" s="54"/>
-      <c r="N42" s="54"/>
-      <c r="O42" s="55"/>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A43" s="47"/>
-      <c r="B43" s="33">
-        <f t="shared" ref="B43:H43" ca="1" si="0">ABS(B42)</f>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="16"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="20"/>
+      <c r="B43" s="44">
+        <f ca="1">ABS(B42)</f>
         <v>0</v>
       </c>
-      <c r="C43" s="33">
-        <f t="shared" ca="1" si="0"/>
+      <c r="C43" s="44">
+        <f ca="1">ABS(C42)</f>
         <v>0</v>
       </c>
-      <c r="D43" s="33">
-        <f t="shared" ca="1" si="0"/>
+      <c r="D43" s="44">
+        <f>ABS(D42)</f>
         <v>0</v>
       </c>
-      <c r="E43" s="33">
-        <f t="shared" ca="1" si="0"/>
+      <c r="E43" s="44">
+        <f ca="1">ABS(E42)</f>
         <v>0</v>
       </c>
-      <c r="F43" s="33">
-        <f t="shared" ca="1" si="0"/>
+      <c r="F43" s="44">
+        <f ca="1">ABS(F42)</f>
         <v>0</v>
       </c>
-      <c r="G43" s="33">
-        <f t="shared" ca="1" si="0"/>
+      <c r="G43" s="44">
+        <f ca="1">ABS(G42)</f>
         <v>0</v>
       </c>
-      <c r="H43" s="33" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I43" s="54"/>
-      <c r="J43" s="54"/>
-      <c r="K43" s="54"/>
-      <c r="L43" s="54"/>
-      <c r="M43" s="54"/>
-      <c r="N43" s="54"/>
-      <c r="O43" s="55"/>
-    </row>
-    <row r="44" spans="1:22" ht="134.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="47"/>
-      <c r="B44" s="58"/>
-      <c r="C44" s="59"/>
-      <c r="D44" s="59"/>
-      <c r="E44" s="59"/>
-      <c r="F44" s="59"/>
-      <c r="G44" s="59"/>
-      <c r="H44" s="60"/>
-      <c r="I44" s="56"/>
-      <c r="J44" s="56"/>
-      <c r="K44" s="56"/>
-      <c r="L44" s="56"/>
-      <c r="M44" s="56"/>
-      <c r="N44" s="56"/>
-      <c r="O44" s="57"/>
+      <c r="H43" s="44" t="e">
+        <f ca="1">ABS(H42)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="16"/>
+    </row>
+    <row ht="134.15000000000001" customHeight="1" r="44">
+      <c r="A44" s="20"/>
+      <c r="B44" s="45"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="46"/>
+      <c r="E44" s="46"/>
+      <c r="F44" s="46"/>
+      <c r="G44" s="46"/>
+      <c r="H44" s="47"/>
+      <c r="I44" s="48"/>
+      <c r="J44" s="48"/>
+      <c r="K44" s="48"/>
+      <c r="L44" s="48"/>
+      <c r="M44" s="48"/>
+      <c r="N44" s="48"/>
+      <c r="O44" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B40:O40"/>
-    <mergeCell ref="A40:A44"/>
-    <mergeCell ref="I41:O44"/>
-    <mergeCell ref="B44:H44"/>
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="B34:O34"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="B28:O28"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="B22:O22"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="B16:O16"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
     <mergeCell ref="A3:O4"/>
     <mergeCell ref="B6:O6"/>
     <mergeCell ref="A6:A8"/>
@@ -3215,259 +3500,280 @@
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B16:O16"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="B22:O22"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="B28:O28"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="B34:O34"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="B40:O40"/>
+    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="I41:O44"/>
+    <mergeCell ref="B44:H44"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <printOptions gridLinesSet="0"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <printOptions headings="0" gridLines="0" gridLinesSet="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100">
+      <selection activeCell="D16" activeCellId="0" sqref="D16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="4" max="4" width="14.75" customWidth="1"/>
-    <col min="7" max="7" width="11" customWidth="1"/>
+    <col customWidth="1" min="4" max="4" width="14.75"/>
+    <col customWidth="1" min="7" max="7" width="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="57" x14ac:dyDescent="0.2">
-      <c r="A1" s="62" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" t="s">
+    <row ht="56" r="1">
+      <c r="A1" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="H2" t="s">
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+    </row>
+    <row r="2">
+      <c r="D2" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="I2" t="s">
+      <c r="E2" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="J2" t="s">
+      <c r="F2" s="0" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C3" s="61" t="s">
+      <c r="G2" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="35" t="str">
+      <c r="H2" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="C3" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="53" t="str">
         <f ca="1">IF((MONTH(D$17)-12)&lt;=0,MONTH(D$17)-12+12&amp;"月",MONTH(D$17)-12&amp;"月")</f>
         <v>8月</v>
       </c>
-      <c r="F3" s="36"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C4" s="61"/>
-      <c r="D4" s="35" t="str">
+      <c r="F3" s="54"/>
+    </row>
+    <row r="4">
+      <c r="C4" s="52"/>
+      <c r="D4" s="53" t="str">
         <f ca="1">IF((MONTH(D$17)-11)&lt;=0,MONTH(D$17)-11+12&amp;"月",MONTH(D$17)-11&amp;"月")</f>
         <v>9月</v>
       </c>
-      <c r="F4" s="36"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C5" s="61"/>
-      <c r="D5" s="35" t="str">
+      <c r="F4" s="54"/>
+    </row>
+    <row r="5">
+      <c r="C5" s="52"/>
+      <c r="D5" s="53" t="str">
         <f ca="1">IF((MONTH(D$17)-10)&lt;=0,MONTH(D$17)-10+12&amp;"月",MONTH(D$17)-10&amp;"月")</f>
         <v>10月</v>
       </c>
-      <c r="F5" s="36"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C6" s="61"/>
-      <c r="D6" s="35" t="str">
+      <c r="F5" s="54"/>
+    </row>
+    <row r="6">
+      <c r="C6" s="52"/>
+      <c r="D6" s="53" t="str">
         <f ca="1">IF((MONTH(D$17)-9)&lt;=0,MONTH(D$17)-9+12&amp;"月",MONTH(D$17)-9&amp;"月")</f>
         <v>11月</v>
       </c>
-      <c r="F6" s="36"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C7" s="61"/>
-      <c r="D7" s="35" t="str">
+      <c r="F6" s="54"/>
+    </row>
+    <row r="7">
+      <c r="C7" s="52"/>
+      <c r="D7" s="53" t="str">
         <f ca="1">IF((MONTH(D$17)-8)&lt;=0,MONTH(D$17)-8+12&amp;"月",MONTH(D$17)-8&amp;"月")</f>
         <v>12月</v>
       </c>
-      <c r="F7" s="36"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C8" s="61"/>
-      <c r="D8" s="35" t="str">
+      <c r="F7" s="54"/>
+    </row>
+    <row r="8">
+      <c r="C8" s="52"/>
+      <c r="D8" s="53" t="str">
         <f ca="1">IF((MONTH(D$17)-7)&lt;=0,MONTH(D$17)-7+12&amp;"月",MONTH(D$17)-7&amp;"月")</f>
         <v>1月</v>
       </c>
-      <c r="F8" s="36"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C9" s="61"/>
-      <c r="D9" s="35" t="str">
+      <c r="F8" s="54"/>
+    </row>
+    <row r="9">
+      <c r="C9" s="52"/>
+      <c r="D9" s="53" t="str">
         <f ca="1">IF((MONTH(D$17)-6)&lt;=0,MONTH(D$17)-6+12&amp;"月",MONTH(D$17)-6&amp;"月")</f>
         <v>2月</v>
       </c>
-      <c r="F9" s="36"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C10" s="61"/>
-      <c r="D10" s="35" t="str">
+      <c r="F9" s="54"/>
+    </row>
+    <row r="10">
+      <c r="C10" s="52"/>
+      <c r="D10" s="53" t="str">
         <f ca="1">IF((MONTH(D$17)-5)&lt;=0,MONTH(D$17)-5+12&amp;"月",MONTH(D$17)-5&amp;"月")</f>
         <v>3月</v>
       </c>
-      <c r="F10" s="36"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C11" s="61"/>
-      <c r="D11" s="35" t="str">
+      <c r="F10" s="54"/>
+    </row>
+    <row r="11">
+      <c r="C11" s="52"/>
+      <c r="D11" s="53" t="str">
         <f ca="1">IF((MONTH(D$17)-4)&lt;=0,MONTH(D$17)-4+12&amp;"月",MONTH(D$17)-4&amp;"月")</f>
         <v>4月</v>
       </c>
-      <c r="F11" s="36"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C12" s="61"/>
-      <c r="D12" s="35" t="str">
+      <c r="F11" s="54"/>
+    </row>
+    <row r="12">
+      <c r="C12" s="52"/>
+      <c r="D12" s="53" t="str">
         <f ca="1">IF((MONTH(D$17)-3)&lt;=0,MONTH(D$17)-3+12&amp;"月",MONTH(D$17)-3&amp;"月")</f>
         <v>5月</v>
       </c>
-      <c r="F12" s="36"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C13" s="61"/>
-      <c r="D13" s="35" t="str">
+      <c r="F12" s="54"/>
+    </row>
+    <row r="13">
+      <c r="C13" s="52"/>
+      <c r="D13" s="53" t="str">
         <f ca="1">IF((MONTH(D$17)-2)&lt;=0,MONTH(D$17)-2+12&amp;"月",MONTH(D$17)-2&amp;"月")</f>
         <v>6月</v>
       </c>
-      <c r="F13" s="36"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C14" s="61"/>
-      <c r="D14" s="35" t="str">
+      <c r="F13" s="54"/>
+    </row>
+    <row r="14">
+      <c r="C14" s="52"/>
+      <c r="D14" s="53" t="str">
         <f ca="1">IF((MONTH(D$17)-1)&lt;=0,MONTH(D$17)-1+12&amp;"月",MONTH(D$17)-1&amp;"月")</f>
         <v>7月</v>
       </c>
-      <c r="F14" s="36"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C15" s="61"/>
-      <c r="D15" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="36"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C16" s="61"/>
-      <c r="D16" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" s="36"/>
-    </row>
-    <row r="17" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D17" s="35">
+      <c r="F14" s="54"/>
+    </row>
+    <row r="15">
+      <c r="C15" s="52"/>
+      <c r="D15" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="54"/>
+    </row>
+    <row r="16">
+      <c r="C16" s="52"/>
+      <c r="D16" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="54"/>
+    </row>
+    <row r="17">
+      <c r="D17" s="53">
         <f ca="1">NOW()</f>
-        <v>43684.354154398148</v>
-      </c>
-    </row>
-    <row r="19" spans="4:10" ht="78" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E19" t="s">
-        <v>47</v>
-      </c>
-      <c r="F19" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="G19" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="H19" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="I19" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="J19" s="37" t="s">
-        <v>52</v>
+        <v>43693.304664351854</v>
+      </c>
+    </row>
+    <row ht="78" customHeight="1" r="19">
+      <c r="E19" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="G19" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="H19" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="I19" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="J19" s="55" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C3:C16"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <printOptions gridLines="1" gridLinesSet="0"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
+  <printOptions headings="0" gridLines="1" gridLinesSet="1"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:B23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0" zoomScale="100">
+      <selection activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" min="2" max="2" width="9.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1" s="38"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B22" s="38"/>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B23" s="38"/>
+    <row r="1">
+      <c r="B1" s="56"/>
+    </row>
+    <row r="22">
+      <c r="B22" s="56"/>
+    </row>
+    <row r="23">
+      <c r="B23" s="56"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <printOptions gridLines="1" gridLinesSet="0"/>
+  <printOptions headings="0" gridLines="1" gridLinesSet="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0" zoomScale="100">
+      <selection activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="16384" width="9" style="40"/>
+    <col min="1" max="16384" style="57" width="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" s="40">
+    <row r="1">
+      <c r="A1" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="57">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <printOptions headings="0" gridLines="0" gridLinesSet="0"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>